--- a/biology/Zoologie/Eoneustes/Eoneustes.xlsx
+++ b/biology/Zoologie/Eoneustes/Eoneustes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eoneustes est un genre éteint de crocodyliformes métriorhynchoïdes carnivores, à long rostre, presque exclusivement marins[4] ayant vécu au Jurassique moyen (Bajocien supérieur à Bathonien inférieur), il y a environ 168 Ma (millions d'années), dans ce qui est aujourd'hui la France. Ses fossiles ont été découverts en Bourgogne-Franche-Comté, Provence-Alpes-Côte d'Azur et en Normandie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eoneustes est un genre éteint de crocodyliformes métriorhynchoïdes carnivores, à long rostre, presque exclusivement marins ayant vécu au Jurassique moyen (Bajocien supérieur à Bathonien inférieur), il y a environ 168 Ma (millions d'années), dans ce qui est aujourd'hui la France. Ses fossiles ont été découverts en Bourgogne-Franche-Comté, Provence-Alpes-Côte d'Azur et en Normandie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>† Eoneustes gaudryi, l'espèce type, décrite à l'origine par L. Collot en 1905 sous le nom de Teleidosaurus à partir d'un crâne partiel, référencé BMNH R3353, découvert à Saint-Seine-l'Abbaye dans le département de la Côte-d'Or en Bourgogne-Franche-Comté. Il provient de calcaires du Bathonien inférieur riches en bivalves, foraminifères et crinoïdes, déposés dans un milieu marin peu agité et peu profond. Il a été réattribué au genre Eoneustes par Mark T. Young et ses collègues en 2010[1]. Un crâne attribué à Teleidosaurus cf. gaudryi, a été décrit en 1995 par Stéphane Hua et François Atrops dans la région de Castellane dans le département des Alpes-de-Haute-Provence dans le sud-est de la France[5]. Il provient du Bajocien supérieur, plus exactement de la zone à Parkinsoni[5].
-† Eoneustes bathonicus, dont le crâne holotype a été décrit en 1933 par J. Mercier[3] sous le nom de genre Metriorhynchus, puis de Teleidosaurus. Il a été découvert dans le département du Calvados en Normandie. L'holotype a été détruit lors des bombardements de Caen en 1944.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>† Eoneustes gaudryi, l'espèce type, décrite à l'origine par L. Collot en 1905 sous le nom de Teleidosaurus à partir d'un crâne partiel, référencé BMNH R3353, découvert à Saint-Seine-l'Abbaye dans le département de la Côte-d'Or en Bourgogne-Franche-Comté. Il provient de calcaires du Bathonien inférieur riches en bivalves, foraminifères et crinoïdes, déposés dans un milieu marin peu agité et peu profond. Il a été réattribué au genre Eoneustes par Mark T. Young et ses collègues en 2010. Un crâne attribué à Teleidosaurus cf. gaudryi, a été décrit en 1995 par Stéphane Hua et François Atrops dans la région de Castellane dans le département des Alpes-de-Haute-Provence dans le sud-est de la France. Il provient du Bajocien supérieur, plus exactement de la zone à Parkinsoni.
+† Eoneustes bathonicus, dont le crâne holotype a été décrit en 1933 par J. Mercier sous le nom de genre Metriorhynchus, puis de Teleidosaurus. Il a été découvert dans le département du Calvados en Normandie. L'holotype a été détruit lors des bombardements de Caen en 1944.</t>
         </is>
       </c>
     </row>
